--- a/LaboUni/translate.xlsx
+++ b/LaboUni/translate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
   <si>
     <t>Polski</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>1-czarny</t>
+  </si>
+  <si>
+    <t>2-kolor</t>
   </si>
 </sst>
 </file>
@@ -1504,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:E65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,7 +2613,7 @@
         <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>122</v>
@@ -2627,7 +2633,7 @@
         <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>123</v>
